--- a/python/resultados_completos_ag.xlsx
+++ b/python/resultados_completos_ag.xlsx
@@ -483,11 +483,11 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'N': 7, 'D': 3, 'Y': 2, 'M': 1, 'S': 9, 'E': 6, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 4, 'D': 5, 'R': 6, 'M': 1, 'O': 0, 'S': 9, 'E': 2, 'N': 3}</t>
         </is>
       </c>
     </row>
@@ -509,11 +509,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'N': 5, 'D': 7, 'Y': 2, 'M': 1, 'S': 9, 'E': 4, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 3, 'N': 5}</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'N': 6, 'D': 7, 'Y': 2, 'M': 1, 'S': 9, 'E': 5, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'N': 6, 'D': 7, 'Y': 2, 'M': 1, 'S': 9, 'E': 5, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'N': 5, 'D': 6, 'Y': 2, 'M': 1, 'S': 9, 'E': 4, 'R': 7, 'O': 0}</t>
+          <t>{'Y': 4, 'D': 5, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 2, 'N': 3}</t>
         </is>
       </c>
     </row>
@@ -613,11 +613,11 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'N': 3, 'D': 6, 'Y': 5, 'M': 1, 'S': 9, 'E': 2, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 3, 'R': 7, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>
@@ -639,11 +639,11 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'N': 6, 'D': 7, 'Y': 2, 'M': 1, 'S': 9, 'E': 5, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 4, 'N': 5}</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'N': 6, 'D': 7, 'Y': 2, 'M': 1, 'S': 9, 'E': 5, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'N': 7, 'D': 3, 'Y': 2, 'M': 1, 'S': 9, 'E': 6, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 6, 'R': 7, 'M': 1, 'O': 0, 'S': 9, 'E': 4, 'N': 5}</t>
         </is>
       </c>
     </row>
@@ -717,11 +717,11 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'N': 7, 'D': 4, 'Y': 2, 'M': 1, 'S': 9, 'E': 6, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 6, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 4, 'N': 5}</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'N': 6, 'D': 7, 'Y': 2, 'M': 1, 'S': 9, 'E': 5, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'N': 6, 'D': 7, 'Y': 2, 'M': 1, 'S': 9, 'E': 5, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>
@@ -795,11 +795,11 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'N': 6, 'D': 7, 'Y': 2, 'M': 1, 'S': 9, 'E': 5, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 3, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'N': 6, 'D': 7, 'Y': 2, 'M': 1, 'S': 9, 'E': 5, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>
@@ -847,11 +847,11 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'N': 7, 'D': 5, 'Y': 2, 'M': 1, 'S': 9, 'E': 6, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'N': 6, 'D': 7, 'Y': 2, 'M': 1, 'S': 9, 'E': 5, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>

--- a/python/resultados_completos_ag.xlsx
+++ b/python/resultados_completos_ag.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,11 +483,11 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'Y': 4, 'D': 5, 'R': 6, 'M': 1, 'O': 0, 'S': 9, 'E': 2, 'N': 3}</t>
+          <t>{'S': 3, 'E': 8, 'D': 1, 'N': 2, 'R': 6, 'Y': 5, 'M': 0, 'O': 4}</t>
         </is>
       </c>
     </row>
@@ -509,11 +509,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 3, 'N': 5}</t>
+          <t>{'S': 8, 'E': 3, 'D': 4, 'N': 2, 'R': 1, 'Y': 5, 'M': 0, 'O': 9}</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
+          <t>{'S': 6, 'E': 4, 'D': 9, 'N': 1, 'R': 2, 'Y': 3, 'M': 0, 'O': 7}</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
+          <t>{'S': 5, 'E': 7, 'D': 2, 'N': 3, 'R': 4, 'Y': 9, 'M': 0, 'O': 6}</t>
         </is>
       </c>
     </row>
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'Y': 4, 'D': 5, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 2, 'N': 3}</t>
+          <t>{'S': 8, 'E': 6, 'D': 4, 'N': 5, 'R': 1, 'Y': 7, 'M': 0, 'O': 9}</t>
         </is>
       </c>
     </row>
@@ -613,11 +613,11 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 3, 'R': 7, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
+          <t>{'S': 7, 'E': 6, 'D': 5, 'N': 4, 'R': 1, 'Y': 3, 'M': 0, 'O': 8}</t>
         </is>
       </c>
     </row>
@@ -639,11 +639,11 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 4, 'N': 5}</t>
+          <t>{'S': 7, 'E': 5, 'D': 1, 'N': 3, 'R': 2, 'Y': 6, 'M': 0, 'O': 8}</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
+          <t>{'S': 6, 'E': 4, 'D': 5, 'N': 1, 'R': 3, 'Y': 9, 'M': 0, 'O': 7}</t>
         </is>
       </c>
     </row>
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 6, 'R': 7, 'M': 1, 'O': 0, 'S': 9, 'E': 4, 'N': 5}</t>
+          <t>{'S': 2, 'E': 8, 'D': 9, 'N': 1, 'R': 6, 'Y': 7, 'M': 0, 'O': 3}</t>
         </is>
       </c>
     </row>
@@ -717,11 +717,11 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'Y': 6, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 4, 'N': 5}</t>
+          <t>{'S': 8, 'E': 6, 'D': 4, 'N': 5, 'R': 2, 'Y': 7, 'M': 0, 'O': 9}</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
+          <t>{'S': 2, 'E': 8, 'D': 7, 'N': 1, 'R': 6, 'Y': 5, 'M': 0, 'O': 3}</t>
         </is>
       </c>
     </row>
@@ -773,13 +773,13 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
+          <t>{'S': 7, 'E': 4, 'D': 9, 'N': 2, 'R': 1, 'Y': 3, 'M': 0, 'O': 8}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="B14" t="n">
         <v>0.1</v>
@@ -795,17 +795,17 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'Y': 3, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
+          <t>{'S': 8, 'E': 3, 'D': 4, 'N': 2, 'R': 1, 'Y': 5, 'M': 0, 'O': 9}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="B15" t="n">
         <v>0.1</v>
@@ -821,24 +821,24 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
+          <t>{'S': 4, 'E': 8, 'D': 7, 'N': 3, 'R': 2, 'Y': 1, 'M': 0, 'O': 5}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -847,37 +847,141 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
+          <t>{'S': 6, 'E': 3, 'D': 8, 'N': 1, 'R': 9, 'Y': 2, 'M': 0, 'O': 7}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="B17" t="n">
         <v>0.1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>{'S': 7, 'E': 4, 'D': 5, 'N': 2, 'R': 3, 'Y': 9, 'M': 0, 'O': 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>{'S': 3, 'E': 7, 'D': 9, 'N': 1, 'R': 5, 'Y': 8, 'M': 0, 'O': 4}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>{'S': 8, 'E': 7, 'D': 2, 'N': 6, 'R': 1, 'Y': 5, 'M': 0, 'O': 9}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>{'Y': 2, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>{'S': 6, 'E': 5, 'D': 4, 'N': 2, 'R': 3, 'Y': 9, 'M': 0, 'O': 7}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>{'S': 7, 'E': 6, 'D': 9, 'N': 4, 'R': 1, 'Y': 5, 'M': 0, 'O': 8}</t>
         </is>
       </c>
     </row>
